--- a/1-2-Student-Resources/2-Student-Resources/03-Stu_LineAndBar/Unsolved/StudentGrades_Unsolved.xlsx
+++ b/1-2-Student-Resources/2-Student-Resources/03-Stu_LineAndBar/Unsolved/StudentGrades_Unsolved.xlsx
@@ -1,19 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\03-Stu_LineAndBar\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/elizabeth_thomas_spglobal_com/Documents/Desktop/ET/Class/Rice University - Data Viz/Git/Bootcamp/1-2-Student-Resources/2-Student-Resources/03-Stu_LineAndBar/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_A84A6ECD442E451F61665A23F565E5AF3208BEE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E1B1D3-52AE-4C00-BA37-8231577B7074}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="14070"/>
+    <workbookView xWindow="1815" yWindow="2550" windowWidth="25395" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -107,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,6 +187,2609 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tad Ethridge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Veda Sanon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Timothy Trimm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odelia Nelsen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aleisha Lavine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Danica Nygard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chadwick Eagle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Petra Mulvey</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nannette Dafoe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jaye Cartier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cora Stolle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amado Tawney</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jeremiah Muncy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kathe Gallivan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wilfred Gasca</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cristobal Hogans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Milton Tubb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kattie Buttars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Milford Kennan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meghan Donaldson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-A667-4506-8F54-111AE1325C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="795732584"/>
+        <c:axId val="795730944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="795732584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795730944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795730944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795732584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252131</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97EC7332-0BC0-43DA-8A14-DC76082237FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,11 +3088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,5 +3683,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>